--- a/templates/AutomationOrg/CRUD-Division Address.xlsx
+++ b/templates/AutomationOrg/CRUD-Division Address.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkakade\Provar\Workspace\System Setup\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3C79B-9A25-4747-807C-7727041D458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA74C886-F2CB-43A2-94F5-EF14EFEA251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="3024" windowWidth="15912" windowHeight="8964" xr2:uid="{0C67DC46-4612-4058-AB81-31A7335FB364}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0C67DC46-4612-4058-AB81-31A7335FB364}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_DivisionAddress" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>AddressType</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>pkakade@rootstock.com</t>
+  </si>
+  <si>
+    <t>New Mumbai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
@@ -463,14 +472,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44CDDCF-15B9-4361-BB91-93CDD3D93E72}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,21 +556,108 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>400042</v>
+      </c>
+      <c r="E3">
+        <v>111000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>121212</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>400042</v>
+      </c>
+      <c r="E4">
+        <v>111000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>121212</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>400042</v>
+      </c>
+      <c r="E5">
+        <v>111000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>121212</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{35566D55-11E5-4C38-A3F5-4CC70F99F243}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{F0D71BFC-631E-48FE-AB48-53A168BCF033}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{6DBEDEC6-8A44-4566-A83A-26263F7792B5}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{C5D8508E-9BC0-4AAD-B742-DD028BAD92D5}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{26BE5F6E-F610-4434-B684-4CA600AF28BB}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{2D3AFDD7-E087-4342-ACE1-6327DC81FA7B}"/>
+    <hyperlink ref="K4" r:id="rId7" xr:uid="{81A4D845-32E4-4716-9DD0-F02532C3B002}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{354E4CFD-00E7-4A3B-8994-C0C70C3A9406}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -567,14 +665,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29013E73-7770-4571-A3AA-22525D35A89F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>400042</v>
+      </c>
+      <c r="E2">
+        <v>111000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>121212</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>400042</v>
+      </c>
+      <c r="E3">
+        <v>111000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>121212</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>400042</v>
+      </c>
+      <c r="E4">
+        <v>111000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>121212</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>400042</v>
+      </c>
+      <c r="E5">
+        <v>111000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>121212</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{591EDB0E-6252-4778-B6D2-BEAD68AE202C}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{92A4687F-8550-4250-9431-C5ED891F7DEE}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{D9D0266B-DF82-427D-B78B-3A582B66B022}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{A250FBF4-1FB5-4163-AA5E-826C77CC1C3E}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{3F6B77C3-6E34-4220-BF3D-E06E1FC137FE}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{053826C9-2BB6-4244-9DF6-1922F23A0433}"/>
+    <hyperlink ref="K4" r:id="rId7" xr:uid="{5AA6D409-77B7-4215-9FE9-89E7C2B75151}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{1F19B7E9-A3F4-4063-9768-D78FDB77D140}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>